--- a/src/data/DiceData.xlsx
+++ b/src/data/DiceData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23415" windowHeight="3180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="14">
   <si>
     <t>die_id</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>BLUE</t>
+  </si>
+  <si>
+    <t>die_value</t>
+  </si>
+  <si>
+    <t>ZERO</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +394,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +404,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -409,8 +418,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -420,8 +432,11 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -431,8 +446,11 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -442,8 +460,11 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -453,8 +474,11 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -464,8 +488,11 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -475,8 +502,11 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -486,8 +516,11 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -497,8 +530,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -508,8 +544,11 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -519,8 +558,11 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -530,8 +572,11 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -541,8 +586,11 @@
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -552,8 +600,11 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -563,8 +614,11 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -574,8 +628,11 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -585,8 +642,11 @@
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -596,8 +656,11 @@
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -607,8 +670,11 @@
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -618,8 +684,11 @@
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -629,8 +698,11 @@
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -640,8 +712,11 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -651,8 +726,11 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -662,8 +740,11 @@
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>A20+1</f>
         <v>5</v>
@@ -674,8 +755,11 @@
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ref="A27:A90" si="0">A21+1</f>
         <v>5</v>
@@ -686,8 +770,11 @@
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -698,8 +785,11 @@
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -710,8 +800,11 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -722,8 +815,11 @@
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -734,8 +830,11 @@
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -746,8 +845,11 @@
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -758,8 +860,11 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -770,8 +875,11 @@
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -782,8 +890,11 @@
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -794,8 +905,11 @@
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -806,8 +920,11 @@
       <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -818,8 +935,11 @@
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -830,8 +950,11 @@
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -842,8 +965,11 @@
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -854,8 +980,11 @@
       <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -866,8 +995,11 @@
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -878,8 +1010,11 @@
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -890,8 +1025,11 @@
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -902,8 +1040,11 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -914,8 +1055,11 @@
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -926,8 +1070,11 @@
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -938,8 +1085,11 @@
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -950,8 +1100,11 @@
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -962,8 +1115,11 @@
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -974,8 +1130,11 @@
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -986,8 +1145,11 @@
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -998,8 +1160,11 @@
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1010,8 +1175,11 @@
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1022,8 +1190,11 @@
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1034,8 +1205,11 @@
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1046,8 +1220,11 @@
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1058,8 +1235,11 @@
       <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1070,8 +1250,11 @@
       <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1082,8 +1265,11 @@
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1094,8 +1280,11 @@
       <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1106,8 +1295,11 @@
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>A57+1</f>
         <v>11</v>
@@ -1118,8 +1310,11 @@
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1130,8 +1325,11 @@
       <c r="C64" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1142,8 +1340,11 @@
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,8 +1355,11 @@
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1166,8 +1370,11 @@
       <c r="C67" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1178,8 +1385,11 @@
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1190,8 +1400,11 @@
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1202,8 +1415,11 @@
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1214,8 +1430,11 @@
       <c r="C71" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1226,8 +1445,11 @@
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1238,8 +1460,11 @@
       <c r="C73" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1250,8 +1475,11 @@
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1262,8 +1490,11 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1274,8 +1505,11 @@
       <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1286,8 +1520,11 @@
       <c r="C77" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1298,8 +1535,11 @@
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1310,8 +1550,11 @@
       <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1322,8 +1565,11 @@
       <c r="C80" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1334,8 +1580,11 @@
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1346,8 +1595,11 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1358,8 +1610,11 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1370,8 +1625,11 @@
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1382,8 +1640,11 @@
       <c r="C85" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1394,8 +1655,11 @@
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1406,8 +1670,11 @@
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1418,8 +1685,11 @@
       <c r="C88" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1430,8 +1700,11 @@
       <c r="C89" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1442,8 +1715,11 @@
       <c r="C90" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" ref="A91:A154" si="1">A85+1</f>
         <v>15</v>
@@ -1454,8 +1730,11 @@
       <c r="C91" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1466,8 +1745,11 @@
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1478,8 +1760,11 @@
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1490,8 +1775,11 @@
       <c r="C94" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1502,8 +1790,11 @@
       <c r="C95" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1514,8 +1805,11 @@
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1526,8 +1820,11 @@
       <c r="C97" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1538,8 +1835,11 @@
       <c r="C98" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1550,8 +1850,11 @@
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1562,8 +1865,11 @@
       <c r="C100" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1574,8 +1880,11 @@
       <c r="C101" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1586,8 +1895,11 @@
       <c r="C102" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1598,8 +1910,11 @@
       <c r="C103" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1610,8 +1925,11 @@
       <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1622,8 +1940,11 @@
       <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1634,8 +1955,11 @@
       <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1646,8 +1970,11 @@
       <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1658,8 +1985,11 @@
       <c r="C108" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1670,8 +2000,11 @@
       <c r="C109" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1682,8 +2015,11 @@
       <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1694,8 +2030,11 @@
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1706,8 +2045,11 @@
       <c r="C112" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1718,8 +2060,11 @@
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1730,8 +2075,11 @@
       <c r="C114" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1742,8 +2090,11 @@
       <c r="C115" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1754,8 +2105,11 @@
       <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1766,8 +2120,11 @@
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1778,8 +2135,11 @@
       <c r="C118" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1790,8 +2150,11 @@
       <c r="C119" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1802,8 +2165,11 @@
       <c r="C120" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1814,8 +2180,11 @@
       <c r="C121" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1826,8 +2195,11 @@
       <c r="C122" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1838,8 +2210,11 @@
       <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1850,8 +2225,11 @@
       <c r="C124" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1862,8 +2240,11 @@
       <c r="C125" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1874,8 +2255,11 @@
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1886,8 +2270,11 @@
       <c r="C127" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1898,8 +2285,11 @@
       <c r="C128" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1910,8 +2300,11 @@
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1922,8 +2315,11 @@
       <c r="C130" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1934,8 +2330,11 @@
       <c r="C131" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1946,8 +2345,11 @@
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1958,8 +2360,11 @@
       <c r="C133" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1970,8 +2375,11 @@
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1982,8 +2390,11 @@
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1994,8 +2405,11 @@
       <c r="C136" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2006,8 +2420,11 @@
       <c r="C137" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2018,8 +2435,11 @@
       <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2030,8 +2450,11 @@
       <c r="C139" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2042,8 +2465,11 @@
       <c r="C140" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2054,8 +2480,11 @@
       <c r="C141" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D141" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2066,8 +2495,11 @@
       <c r="C142" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2078,8 +2510,11 @@
       <c r="C143" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D143" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2090,8 +2525,11 @@
       <c r="C144" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2102,8 +2540,11 @@
       <c r="C145" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2114,8 +2555,11 @@
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2126,8 +2570,11 @@
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2138,8 +2585,11 @@
       <c r="C148" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D148" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2150,8 +2600,11 @@
       <c r="C149" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2162,8 +2615,11 @@
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2174,8 +2630,11 @@
       <c r="C151" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2186,8 +2645,11 @@
       <c r="C152" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2198,8 +2660,11 @@
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2210,8 +2675,11 @@
       <c r="C154" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" ref="A155:A218" si="2">A149+1</f>
         <v>26</v>
@@ -2222,8 +2690,11 @@
       <c r="C155" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2234,8 +2705,11 @@
       <c r="C156" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2246,8 +2720,11 @@
       <c r="C157" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2258,8 +2735,11 @@
       <c r="C158" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2270,8 +2750,11 @@
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2282,8 +2765,11 @@
       <c r="C160" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D160" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2294,8 +2780,11 @@
       <c r="C161" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2306,8 +2795,11 @@
       <c r="C162" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2318,8 +2810,11 @@
       <c r="C163" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2330,8 +2825,11 @@
       <c r="C164" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2342,8 +2840,11 @@
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2354,8 +2855,11 @@
       <c r="C166" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D166" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2366,8 +2870,11 @@
       <c r="C167" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2378,8 +2885,11 @@
       <c r="C168" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2390,8 +2900,11 @@
       <c r="C169" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D169" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2402,8 +2915,11 @@
       <c r="C170" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2414,8 +2930,11 @@
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2426,8 +2945,11 @@
       <c r="C172" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D172" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2438,8 +2960,11 @@
       <c r="C173" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D173" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2450,8 +2975,11 @@
       <c r="C174" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D174" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -2462,8 +2990,11 @@
       <c r="C175" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D175" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2474,8 +3005,11 @@
       <c r="C176" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D176" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2486,8 +3020,11 @@
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D177" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2498,8 +3035,11 @@
       <c r="C178" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D178" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2510,8 +3050,11 @@
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2522,8 +3065,11 @@
       <c r="C180" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D180" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2534,8 +3080,11 @@
       <c r="C181" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2546,8 +3095,11 @@
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2558,8 +3110,11 @@
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2570,8 +3125,11 @@
       <c r="C184" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2582,8 +3140,11 @@
       <c r="C185" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D185" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2594,8 +3155,11 @@
       <c r="C186" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2606,8 +3170,11 @@
       <c r="C187" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D187" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2618,8 +3185,11 @@
       <c r="C188" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2630,8 +3200,11 @@
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D189" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2642,8 +3215,11 @@
       <c r="C190" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2654,8 +3230,11 @@
       <c r="C191" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2666,8 +3245,11 @@
       <c r="C192" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D192" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2678,8 +3260,11 @@
       <c r="C193" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2690,8 +3275,11 @@
       <c r="C194" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D194" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2702,8 +3290,11 @@
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D195" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2714,8 +3305,11 @@
       <c r="C196" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D196" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2726,8 +3320,11 @@
       <c r="C197" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2738,8 +3335,11 @@
       <c r="C198" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D198" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2750,8 +3350,11 @@
       <c r="C199" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2762,8 +3365,11 @@
       <c r="C200" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2774,8 +3380,11 @@
       <c r="C201" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2786,8 +3395,11 @@
       <c r="C202" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2798,8 +3410,11 @@
       <c r="C203" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2810,8 +3425,11 @@
       <c r="C204" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2822,8 +3440,11 @@
       <c r="C205" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2834,8 +3455,11 @@
       <c r="C206" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2846,8 +3470,11 @@
       <c r="C207" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2858,8 +3485,11 @@
       <c r="C208" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2870,8 +3500,11 @@
       <c r="C209" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2882,8 +3515,11 @@
       <c r="C210" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2894,8 +3530,11 @@
       <c r="C211" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2906,8 +3545,11 @@
       <c r="C212" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2918,8 +3560,11 @@
       <c r="C213" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2930,8 +3575,11 @@
       <c r="C214" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2942,8 +3590,11 @@
       <c r="C215" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2954,8 +3605,11 @@
       <c r="C216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -2966,8 +3620,11 @@
       <c r="C217" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -2978,8 +3635,11 @@
       <c r="C218" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" ref="A219:A282" si="3">A213+1</f>
         <v>37</v>
@@ -2990,8 +3650,11 @@
       <c r="C219" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3002,8 +3665,11 @@
       <c r="C220" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3014,8 +3680,11 @@
       <c r="C221" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3026,8 +3695,11 @@
       <c r="C222" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D222" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3038,8 +3710,11 @@
       <c r="C223" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D223" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3050,8 +3725,11 @@
       <c r="C224" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D224" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3062,8 +3740,11 @@
       <c r="C225" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D225" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3074,8 +3755,11 @@
       <c r="C226" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D226" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3086,8 +3770,11 @@
       <c r="C227" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D227" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3098,8 +3785,11 @@
       <c r="C228" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D228" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3110,8 +3800,11 @@
       <c r="C229" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D229" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3122,8 +3815,11 @@
       <c r="C230" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D230" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3134,8 +3830,11 @@
       <c r="C231" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D231" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3146,8 +3845,11 @@
       <c r="C232" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D232" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3158,8 +3860,11 @@
       <c r="C233" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D233" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3170,8 +3875,11 @@
       <c r="C234" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D234" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -3182,8 +3890,11 @@
       <c r="C235" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D235" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3194,8 +3905,11 @@
       <c r="C236" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D236" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3206,8 +3920,11 @@
       <c r="C237" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D237" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3218,8 +3935,11 @@
       <c r="C238" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D238" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3230,8 +3950,11 @@
       <c r="C239" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D239" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3242,8 +3965,11 @@
       <c r="C240" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D240" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3254,8 +3980,11 @@
       <c r="C241" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D241" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3266,8 +3995,11 @@
       <c r="C242" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D242" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3278,8 +4010,11 @@
       <c r="C243" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D243" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3290,8 +4025,11 @@
       <c r="C244" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D244" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3302,8 +4040,11 @@
       <c r="C245" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D245" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3314,8 +4055,11 @@
       <c r="C246" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D246" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -3326,8 +4070,11 @@
       <c r="C247" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3338,8 +4085,11 @@
       <c r="C248" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D248" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3350,8 +4100,11 @@
       <c r="C249" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D249" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3362,8 +4115,11 @@
       <c r="C250" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D250" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3374,8 +4130,11 @@
       <c r="C251" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D251" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3386,8 +4145,11 @@
       <c r="C252" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D252" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <f t="shared" si="3"/>
         <v>42</v>
@@ -3398,8 +4160,11 @@
       <c r="C253" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D253" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3410,8 +4175,11 @@
       <c r="C254" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D254" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3422,8 +4190,11 @@
       <c r="C255" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D255" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3434,8 +4205,11 @@
       <c r="C256" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D256" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3446,8 +4220,11 @@
       <c r="C257" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D257" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3458,8 +4235,11 @@
       <c r="C258" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D258" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <f t="shared" si="3"/>
         <v>43</v>
@@ -3470,8 +4250,11 @@
       <c r="C259" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D259" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3482,8 +4265,11 @@
       <c r="C260" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D260" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3494,8 +4280,11 @@
       <c r="C261" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D261" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3506,8 +4295,11 @@
       <c r="C262" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D262" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3518,8 +4310,11 @@
       <c r="C263" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D263" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3530,8 +4325,11 @@
       <c r="C264" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D264" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3542,8 +4340,11 @@
       <c r="C265" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D265" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3554,8 +4355,11 @@
       <c r="C266" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D266" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3566,8 +4370,11 @@
       <c r="C267" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D267" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3578,8 +4385,11 @@
       <c r="C268" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D268" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3590,8 +4400,11 @@
       <c r="C269" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D269" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3602,8 +4415,11 @@
       <c r="C270" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D270" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3614,8 +4430,11 @@
       <c r="C271" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D271" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3626,8 +4445,11 @@
       <c r="C272" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D272" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3638,8 +4460,11 @@
       <c r="C273" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D273" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3650,8 +4475,11 @@
       <c r="C274" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D274" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3662,8 +4490,11 @@
       <c r="C275" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D275" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3674,8 +4505,11 @@
       <c r="C276" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D276" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <f t="shared" si="3"/>
         <v>46</v>
@@ -3686,8 +4520,11 @@
       <c r="C277" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D277" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3698,8 +4535,11 @@
       <c r="C278" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D278" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3710,8 +4550,11 @@
       <c r="C279" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3722,8 +4565,11 @@
       <c r="C280" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D280" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3734,8 +4580,11 @@
       <c r="C281" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D281" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3746,8 +4595,11 @@
       <c r="C282" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D282" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <f t="shared" ref="A283:A346" si="4">A277+1</f>
         <v>47</v>
@@ -3758,8 +4610,11 @@
       <c r="C283" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D283" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -3770,8 +4625,11 @@
       <c r="C284" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D284" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -3782,8 +4640,11 @@
       <c r="C285" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D285" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -3794,8 +4655,11 @@
       <c r="C286" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D286" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -3806,8 +4670,11 @@
       <c r="C287" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D287" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -3818,8 +4685,11 @@
       <c r="C288" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D288" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -3830,8 +4700,11 @@
       <c r="C289" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D289" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -3842,8 +4715,11 @@
       <c r="C290" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D290" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -3854,8 +4730,11 @@
       <c r="C291" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D291" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -3866,8 +4745,11 @@
       <c r="C292" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D292" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -3878,8 +4760,11 @@
       <c r="C293" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D293" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -3890,8 +4775,11 @@
       <c r="C294" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D294" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -3902,8 +4790,11 @@
       <c r="C295" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D295" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -3914,8 +4805,11 @@
       <c r="C296" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D296" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -3926,8 +4820,11 @@
       <c r="C297" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D297" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -3938,8 +4835,11 @@
       <c r="C298" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D298" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -3950,8 +4850,11 @@
       <c r="C299" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D299" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -3962,8 +4865,11 @@
       <c r="C300" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D300" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -3974,8 +4880,11 @@
       <c r="C301" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D301" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -3986,8 +4895,11 @@
       <c r="C302" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D302" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -3998,8 +4910,11 @@
       <c r="C303" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D303" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -4010,8 +4925,11 @@
       <c r="C304" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D304" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -4022,8 +4940,11 @@
       <c r="C305" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D305" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -4034,8 +4955,11 @@
       <c r="C306" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D306" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -4046,8 +4970,11 @@
       <c r="C307" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D307" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4058,8 +4985,11 @@
       <c r="C308" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D308" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4070,8 +5000,11 @@
       <c r="C309" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D309" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4082,8 +5015,11 @@
       <c r="C310" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D310" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4094,8 +5030,11 @@
       <c r="C311" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D311" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4106,8 +5045,11 @@
       <c r="C312" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D312" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4118,8 +5060,11 @@
       <c r="C313" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D313" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4130,8 +5075,11 @@
       <c r="C314" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4142,8 +5090,11 @@
       <c r="C315" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D315" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4154,8 +5105,11 @@
       <c r="C316" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4166,8 +5120,11 @@
       <c r="C317" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D317" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4178,8 +5135,11 @@
       <c r="C318" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D318" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4190,8 +5150,11 @@
       <c r="C319" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D319" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4202,8 +5165,11 @@
       <c r="C320" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D320" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4214,8 +5180,11 @@
       <c r="C321" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D321" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4226,8 +5195,11 @@
       <c r="C322" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D322" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4238,8 +5210,11 @@
       <c r="C323" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D323" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4250,8 +5225,11 @@
       <c r="C324" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D324" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4262,8 +5240,11 @@
       <c r="C325" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D325" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4274,8 +5255,11 @@
       <c r="C326" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D326" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4286,8 +5270,11 @@
       <c r="C327" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D327" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4298,8 +5285,11 @@
       <c r="C328" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D328" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4310,8 +5300,11 @@
       <c r="C329" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D329" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4322,8 +5315,11 @@
       <c r="C330" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D330" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4334,8 +5330,11 @@
       <c r="C331" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D331" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4346,8 +5345,11 @@
       <c r="C332" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D332" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4358,8 +5360,11 @@
       <c r="C333" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D333" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4370,8 +5375,11 @@
       <c r="C334" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D334" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4382,8 +5390,11 @@
       <c r="C335" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D335" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4394,8 +5405,11 @@
       <c r="C336" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D336" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4406,8 +5420,11 @@
       <c r="C337" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D337" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4418,8 +5435,11 @@
       <c r="C338" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D338" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4430,8 +5450,11 @@
       <c r="C339" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D339" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4442,8 +5465,11 @@
       <c r="C340" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D340" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4454,8 +5480,11 @@
       <c r="C341" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D341" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4466,8 +5495,11 @@
       <c r="C342" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D342" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4478,8 +5510,11 @@
       <c r="C343" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D343" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -4490,8 +5525,11 @@
       <c r="C344" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D344" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -4502,8 +5540,11 @@
       <c r="C345" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D345" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -4514,8 +5555,11 @@
       <c r="C346" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D346" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <f t="shared" ref="A347:A410" si="5">A341+1</f>
         <v>58</v>
@@ -4526,8 +5570,11 @@
       <c r="C347" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D347" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -4538,8 +5585,11 @@
       <c r="C348" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D348" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -4550,8 +5600,11 @@
       <c r="C349" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D349" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -4562,8 +5615,11 @@
       <c r="C350" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D350" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -4574,8 +5630,11 @@
       <c r="C351" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D351" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -4586,8 +5645,11 @@
       <c r="C352" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D352" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -4598,8 +5660,11 @@
       <c r="C353" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D353" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -4610,8 +5675,11 @@
       <c r="C354" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D354" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -4622,8 +5690,11 @@
       <c r="C355" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D355" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -4634,8 +5705,11 @@
       <c r="C356" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D356" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -4646,8 +5720,11 @@
       <c r="C357" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D357" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -4658,8 +5735,11 @@
       <c r="C358" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D358" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -4670,8 +5750,11 @@
       <c r="C359" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D359" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -4682,8 +5765,11 @@
       <c r="C360" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D360" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -4694,8 +5780,11 @@
       <c r="C361" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D361" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -4706,8 +5795,11 @@
       <c r="C362" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D362" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -4718,8 +5810,11 @@
       <c r="C363" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D363" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -4730,8 +5825,11 @@
       <c r="C364" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D364" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -4742,8 +5840,11 @@
       <c r="C365" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D365" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -4754,8 +5855,11 @@
       <c r="C366" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D366" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <f t="shared" si="5"/>
         <v>61</v>
@@ -4766,8 +5870,11 @@
       <c r="C367" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D367" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -4778,8 +5885,11 @@
       <c r="C368" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D368" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -4790,8 +5900,11 @@
       <c r="C369" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D369" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -4802,8 +5915,11 @@
       <c r="C370" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D370" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -4814,8 +5930,11 @@
       <c r="C371" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D371" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -4826,8 +5945,11 @@
       <c r="C372" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D372" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <f t="shared" si="5"/>
         <v>62</v>
@@ -4838,8 +5960,11 @@
       <c r="C373" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D373" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -4850,8 +5975,11 @@
       <c r="C374" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D374" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -4862,8 +5990,11 @@
       <c r="C375" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D375" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -4874,8 +6005,11 @@
       <c r="C376" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D376" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -4886,8 +6020,11 @@
       <c r="C377" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D377" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -4898,8 +6035,11 @@
       <c r="C378" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D378" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
@@ -4910,8 +6050,11 @@
       <c r="C379" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D379" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -4922,8 +6065,11 @@
       <c r="C380" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D380" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -4934,8 +6080,11 @@
       <c r="C381" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D381" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -4946,8 +6095,11 @@
       <c r="C382" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D382" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -4958,8 +6110,11 @@
       <c r="C383" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D383" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -4970,8 +6125,11 @@
       <c r="C384" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D384" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -4982,8 +6140,11 @@
       <c r="C385" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D385" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -4994,8 +6155,11 @@
       <c r="C386" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D386" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -5006,8 +6170,11 @@
       <c r="C387" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D387" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -5018,8 +6185,11 @@
       <c r="C388" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D388" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -5030,8 +6200,11 @@
       <c r="C389" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D389" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -5042,8 +6215,11 @@
       <c r="C390" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D390" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -5054,8 +6230,11 @@
       <c r="C391" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D391" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -5066,8 +6245,11 @@
       <c r="C392" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D392" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -5078,8 +6260,11 @@
       <c r="C393" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D393" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -5090,8 +6275,11 @@
       <c r="C394" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D394" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -5102,8 +6290,11 @@
       <c r="C395" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D395" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -5114,8 +6305,11 @@
       <c r="C396" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D396" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -5126,8 +6320,11 @@
       <c r="C397" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D397" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -5138,8 +6335,11 @@
       <c r="C398" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D398" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -5150,8 +6350,11 @@
       <c r="C399" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D399" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -5162,8 +6365,11 @@
       <c r="C400" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D400" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -5174,8 +6380,11 @@
       <c r="C401" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D401" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -5186,8 +6395,11 @@
       <c r="C402" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D402" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -5198,8 +6410,11 @@
       <c r="C403" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D403" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -5210,8 +6425,11 @@
       <c r="C404" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D404" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -5222,8 +6440,11 @@
       <c r="C405" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D405" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -5234,8 +6455,11 @@
       <c r="C406" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D406" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -5246,8 +6470,11 @@
       <c r="C407" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D407" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -5258,8 +6485,11 @@
       <c r="C408" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D408" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -5270,8 +6500,11 @@
       <c r="C409" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D409" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <f t="shared" si="5"/>
         <v>69</v>
@@ -5282,8 +6515,11 @@
       <c r="C410" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D410" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <f t="shared" ref="A411:A474" si="6">A405+1</f>
         <v>69</v>
@@ -5294,8 +6530,11 @@
       <c r="C411" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D411" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -5306,8 +6545,11 @@
       <c r="C412" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D412" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -5318,8 +6560,11 @@
       <c r="C413" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D413" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -5330,8 +6575,11 @@
       <c r="C414" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D414" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -5342,8 +6590,11 @@
       <c r="C415" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D415" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -5354,8 +6605,11 @@
       <c r="C416" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D416" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -5366,8 +6620,11 @@
       <c r="C417" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D417" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -5378,8 +6635,11 @@
       <c r="C418" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D418" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -5390,8 +6650,11 @@
       <c r="C419" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D419" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -5402,8 +6665,11 @@
       <c r="C420" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D420" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -5414,8 +6680,11 @@
       <c r="C421" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D421" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -5426,8 +6695,11 @@
       <c r="C422" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D422" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -5438,8 +6710,11 @@
       <c r="C423" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D423" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -5450,8 +6725,11 @@
       <c r="C424" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -5462,8 +6740,11 @@
       <c r="C425" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D425" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -5474,8 +6755,11 @@
       <c r="C426" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D426" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -5486,8 +6770,11 @@
       <c r="C427" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D427" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -5498,8 +6785,11 @@
       <c r="C428" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D428" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -5510,8 +6800,11 @@
       <c r="C429" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D429" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -5522,8 +6815,11 @@
       <c r="C430" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D430" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -5534,8 +6830,11 @@
       <c r="C431" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D431" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -5546,8 +6845,11 @@
       <c r="C432" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D432" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -5558,8 +6860,11 @@
       <c r="C433" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D433" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -5570,8 +6875,11 @@
       <c r="C434" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D434" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -5582,8 +6890,11 @@
       <c r="C435" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D435" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -5594,8 +6905,11 @@
       <c r="C436" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D436" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -5606,8 +6920,11 @@
       <c r="C437" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D437" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -5618,8 +6935,11 @@
       <c r="C438" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D438" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -5630,8 +6950,11 @@
       <c r="C439" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D439" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -5642,8 +6965,11 @@
       <c r="C440" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D440" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -5654,8 +6980,11 @@
       <c r="C441" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D441" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -5666,8 +6995,11 @@
       <c r="C442" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D442" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -5678,8 +7010,11 @@
       <c r="C443" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D443" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -5690,8 +7025,11 @@
       <c r="C444" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D444" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -5702,8 +7040,11 @@
       <c r="C445" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D445" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -5714,8 +7055,11 @@
       <c r="C446" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D446" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -5726,8 +7070,11 @@
       <c r="C447" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D447" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -5738,8 +7085,11 @@
       <c r="C448" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D448" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -5750,8 +7100,11 @@
       <c r="C449" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D449" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -5762,8 +7115,11 @@
       <c r="C450" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D450" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -5774,8 +7130,11 @@
       <c r="C451" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D451" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -5786,8 +7145,11 @@
       <c r="C452" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D452" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -5798,8 +7160,11 @@
       <c r="C453" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D453" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -5810,8 +7175,11 @@
       <c r="C454" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D454" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -5822,8 +7190,11 @@
       <c r="C455" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D455" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -5834,8 +7205,11 @@
       <c r="C456" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D456" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -5846,8 +7220,11 @@
       <c r="C457" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D457" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -5858,8 +7235,11 @@
       <c r="C458" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D458" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -5870,8 +7250,11 @@
       <c r="C459" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D459" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -5882,8 +7265,11 @@
       <c r="C460" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D460" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -5894,8 +7280,11 @@
       <c r="C461" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D461" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -5906,8 +7295,11 @@
       <c r="C462" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D462" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -5918,8 +7310,11 @@
       <c r="C463" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D463" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -5930,8 +7325,11 @@
       <c r="C464" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D464" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -5942,8 +7340,11 @@
       <c r="C465" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D465" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -5954,8 +7355,11 @@
       <c r="C466" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D466" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -5966,8 +7370,11 @@
       <c r="C467" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D467" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -5978,8 +7385,11 @@
       <c r="C468" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D468" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -5990,8 +7400,11 @@
       <c r="C469" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D469" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -6002,8 +7415,11 @@
       <c r="C470" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D470" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -6014,8 +7430,11 @@
       <c r="C471" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D471" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -6026,8 +7445,11 @@
       <c r="C472" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D472" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -6038,8 +7460,11 @@
       <c r="C473" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D473" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -6050,8 +7475,11 @@
       <c r="C474" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D474" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <f t="shared" ref="A475:A538" si="7">A469+1</f>
         <v>79</v>
@@ -6062,8 +7490,11 @@
       <c r="C475" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D475" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -6074,8 +7505,11 @@
       <c r="C476" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D476" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -6086,8 +7520,11 @@
       <c r="C477" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D477" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -6098,8 +7535,11 @@
       <c r="C478" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D478" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -6110,8 +7550,11 @@
       <c r="C479" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D479" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -6122,8 +7565,11 @@
       <c r="C480" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D480" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -6134,8 +7580,11 @@
       <c r="C481" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D481" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -6146,8 +7595,11 @@
       <c r="C482" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D482" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -6158,8 +7610,11 @@
       <c r="C483" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D483" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -6170,8 +7625,11 @@
       <c r="C484" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D484" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -6182,8 +7640,11 @@
       <c r="C485" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D485" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -6194,8 +7655,11 @@
       <c r="C486" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D486" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -6206,8 +7670,11 @@
       <c r="C487" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D487" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -6218,8 +7685,11 @@
       <c r="C488" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D488" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -6230,8 +7700,11 @@
       <c r="C489" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D489" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -6242,8 +7715,11 @@
       <c r="C490" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D490" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -6254,8 +7730,11 @@
       <c r="C491" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D491" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -6266,8 +7745,11 @@
       <c r="C492" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D492" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -6278,8 +7760,11 @@
       <c r="C493" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D493" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -6290,8 +7775,11 @@
       <c r="C494" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D494" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -6302,8 +7790,11 @@
       <c r="C495" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D495" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -6314,8 +7805,11 @@
       <c r="C496" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D496" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -6326,8 +7820,11 @@
       <c r="C497" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D497" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -6338,8 +7835,11 @@
       <c r="C498" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D498" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -6350,8 +7850,11 @@
       <c r="C499" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D499" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -6362,8 +7865,11 @@
       <c r="C500" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D500" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -6374,8 +7880,11 @@
       <c r="C501" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D501" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -6386,8 +7895,11 @@
       <c r="C502" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D502" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -6398,8 +7910,11 @@
       <c r="C503" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D503" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -6410,8 +7925,11 @@
       <c r="C504" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D504" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -6422,8 +7940,11 @@
       <c r="C505" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D505" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -6434,8 +7955,11 @@
       <c r="C506" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D506" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -6446,8 +7970,11 @@
       <c r="C507" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D507" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -6458,8 +7985,11 @@
       <c r="C508" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D508" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -6470,8 +8000,11 @@
       <c r="C509" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D509" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -6482,8 +8015,11 @@
       <c r="C510" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D510" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -6494,8 +8030,11 @@
       <c r="C511" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D511" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -6506,8 +8045,11 @@
       <c r="C512" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D512" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -6518,8 +8060,11 @@
       <c r="C513" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D513" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -6530,8 +8075,11 @@
       <c r="C514" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D514" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -6542,8 +8090,11 @@
       <c r="C515" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D515" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -6554,8 +8105,11 @@
       <c r="C516" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D516" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -6566,8 +8120,11 @@
       <c r="C517" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D517" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -6578,8 +8135,11 @@
       <c r="C518" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D518" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -6590,8 +8150,11 @@
       <c r="C519" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D519" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -6602,8 +8165,11 @@
       <c r="C520" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D520" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -6614,8 +8180,11 @@
       <c r="C521" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D521" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -6626,8 +8195,11 @@
       <c r="C522" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D522" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -6638,8 +8210,11 @@
       <c r="C523" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D523" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -6650,8 +8225,11 @@
       <c r="C524" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D524" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -6662,8 +8240,11 @@
       <c r="C525" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D525" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -6674,8 +8255,11 @@
       <c r="C526" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D526" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -6686,8 +8270,11 @@
       <c r="C527" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D527" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -6698,8 +8285,11 @@
       <c r="C528" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D528" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -6710,8 +8300,11 @@
       <c r="C529" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D529" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -6722,8 +8315,11 @@
       <c r="C530" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D530" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -6734,8 +8330,11 @@
       <c r="C531" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D531" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -6746,8 +8345,11 @@
       <c r="C532" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D532" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -6758,8 +8360,11 @@
       <c r="C533" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D533" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -6770,8 +8375,11 @@
       <c r="C534" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D534" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -6782,8 +8390,11 @@
       <c r="C535" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D535" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -6794,8 +8405,11 @@
       <c r="C536" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D536" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -6806,8 +8420,11 @@
       <c r="C537" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D537" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -6818,8 +8435,11 @@
       <c r="C538" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D538" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <f t="shared" ref="A539:A541" si="8">A533+1</f>
         <v>90</v>
@@ -6830,8 +8450,11 @@
       <c r="C539" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D539" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <f t="shared" si="8"/>
         <v>90</v>
@@ -6842,8 +8465,11 @@
       <c r="C540" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D540" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <f t="shared" si="8"/>
         <v>90</v>
@@ -6853,6 +8479,9 @@
       </c>
       <c r="C541" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
